--- a/Code/Results/Cases/Case_1_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.63732368197293</v>
+        <v>0.5888815306416006</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03772552990006162</v>
+        <v>0.03440194418249831</v>
       </c>
       <c r="E2">
-        <v>0.1063648812497364</v>
+        <v>0.2072174822950821</v>
       </c>
       <c r="F2">
-        <v>0.7924744904394601</v>
+        <v>0.9930695111709724</v>
       </c>
       <c r="G2">
-        <v>0.7091870992838381</v>
+        <v>0.8482818272803314</v>
       </c>
       <c r="H2">
-        <v>0.4807760813442883</v>
+        <v>0.8918630600367692</v>
       </c>
       <c r="I2">
-        <v>0.5023319702953053</v>
+        <v>1.111877892119693</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.645710543967311</v>
+        <v>0.4984873897189175</v>
       </c>
       <c r="L2">
-        <v>0.238700161077233</v>
+        <v>0.181241298967322</v>
       </c>
       <c r="M2">
-        <v>0.1966951861107198</v>
+        <v>0.1675686564766714</v>
       </c>
       <c r="N2">
-        <v>0.992982100969062</v>
+        <v>2.052689442208054</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5626102017441212</v>
+        <v>0.5706823736761351</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03575357652847089</v>
+        <v>0.03362665722089631</v>
       </c>
       <c r="E3">
-        <v>0.10515908131533</v>
+        <v>0.2070506507462229</v>
       </c>
       <c r="F3">
-        <v>0.7332751837123865</v>
+        <v>0.9844754281123755</v>
       </c>
       <c r="G3">
-        <v>0.6572952437496298</v>
+        <v>0.840836739305459</v>
       </c>
       <c r="H3">
-        <v>0.463342973909846</v>
+        <v>0.8930181420368513</v>
       </c>
       <c r="I3">
-        <v>0.509529735291288</v>
+        <v>1.119832566816203</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.431218342757802</v>
+        <v>0.4350155381087291</v>
       </c>
       <c r="L3">
-        <v>0.2101012160466809</v>
+        <v>0.1743772246329343</v>
       </c>
       <c r="M3">
-        <v>0.1734418700574309</v>
+        <v>0.161949245535272</v>
       </c>
       <c r="N3">
-        <v>1.040578369259565</v>
+        <v>2.072694104772502</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5170972085060157</v>
+        <v>0.5597590413339333</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03453601907287407</v>
+        <v>0.03314464114088267</v>
       </c>
       <c r="E4">
-        <v>0.1044470839266687</v>
+        <v>0.2069566925088493</v>
       </c>
       <c r="F4">
-        <v>0.6983467269233117</v>
+        <v>0.9798059982532976</v>
       </c>
       <c r="G4">
-        <v>0.6268427421122595</v>
+        <v>0.8368245189965364</v>
       </c>
       <c r="H4">
-        <v>0.4534705933730692</v>
+        <v>0.8941531576961381</v>
       </c>
       <c r="I4">
-        <v>0.5147397858013889</v>
+        <v>1.125155115154378</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.300000592062446</v>
+        <v>0.3960058110855584</v>
       </c>
       <c r="L4">
-        <v>0.1927590589839809</v>
+        <v>0.1702594723442559</v>
       </c>
       <c r="M4">
-        <v>0.1593020058558992</v>
+        <v>0.1585776322827002</v>
       </c>
       <c r="N4">
-        <v>1.071059206618603</v>
+        <v>2.085608232925924</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4986332145989536</v>
+        <v>0.5553712386222855</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03403807856093977</v>
+        <v>0.03294672005085886</v>
       </c>
       <c r="E5">
-        <v>0.104163495756989</v>
+        <v>0.2069205369147475</v>
       </c>
       <c r="F5">
-        <v>0.6844468733789171</v>
+        <v>0.9780558176451279</v>
       </c>
       <c r="G5">
-        <v>0.6147638155165822</v>
+        <v>0.835329920727645</v>
       </c>
       <c r="H5">
-        <v>0.4496458727386994</v>
+        <v>0.8947227818290457</v>
       </c>
       <c r="I5">
-        <v>0.5170554422582612</v>
+        <v>1.127434378971664</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.24661945756975</v>
+        <v>0.38009981386449</v>
       </c>
       <c r="L5">
-        <v>0.1857416329479662</v>
+        <v>0.1686058590775588</v>
       </c>
       <c r="M5">
-        <v>0.1535714301506452</v>
+        <v>0.1572235676640119</v>
       </c>
       <c r="N5">
-        <v>1.083789021117074</v>
+        <v>2.091029553898888</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4955720662389069</v>
+        <v>0.5546464976476813</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03395528664831815</v>
+        <v>0.03291376536241586</v>
       </c>
       <c r="E6">
-        <v>0.1041167861933783</v>
+        <v>0.2069146621928812</v>
       </c>
       <c r="F6">
-        <v>0.6821583142045142</v>
+        <v>0.97777441890738</v>
       </c>
       <c r="G6">
-        <v>0.6127774257896021</v>
+        <v>0.8350902194076895</v>
       </c>
       <c r="H6">
-        <v>0.4490224574519601</v>
+        <v>0.8948238366546803</v>
       </c>
       <c r="I6">
-        <v>0.5174514049217898</v>
+        <v>1.127819511434367</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.237760227180615</v>
+        <v>0.3774580866938777</v>
       </c>
       <c r="L6">
-        <v>0.184579249114762</v>
+        <v>0.1683327535476167</v>
       </c>
       <c r="M6">
-        <v>0.1526216892325962</v>
+        <v>0.1569999307838401</v>
       </c>
       <c r="N6">
-        <v>1.08592122993652</v>
+        <v>2.091939345565564</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5168478710904765</v>
+        <v>0.5596996080447241</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03452931095566569</v>
+        <v>0.03314197795071649</v>
       </c>
       <c r="E7">
-        <v>0.104443233537963</v>
+        <v>0.2069561962617588</v>
       </c>
       <c r="F7">
-        <v>0.6981579471116248</v>
+        <v>0.97978177673766</v>
       </c>
       <c r="G7">
-        <v>0.6266785327718054</v>
+        <v>0.8368037940235098</v>
       </c>
       <c r="H7">
-        <v>0.4534182225146566</v>
+        <v>0.8941604061841559</v>
       </c>
       <c r="I7">
-        <v>0.5147702441329294</v>
+        <v>1.125185407501057</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.299280344501881</v>
+        <v>0.3957913341941151</v>
       </c>
       <c r="L7">
-        <v>0.1926642250608239</v>
+        <v>0.1702370722473745</v>
       </c>
       <c r="M7">
-        <v>0.1592245976182411</v>
+        <v>0.1585592902082524</v>
       </c>
       <c r="N7">
-        <v>1.071229645149067</v>
+        <v>2.08568070416276</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6114825278669684</v>
+        <v>0.582554607456899</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03704695833905802</v>
+        <v>0.03413587343716884</v>
       </c>
       <c r="E8">
-        <v>0.1059428705710168</v>
+        <v>0.2071582001418841</v>
       </c>
       <c r="F8">
-        <v>0.7717533576855118</v>
+        <v>0.9899801583003693</v>
       </c>
       <c r="G8">
-        <v>0.6909876201125087</v>
+        <v>0.8455986110574969</v>
       </c>
       <c r="H8">
-        <v>0.4745858735486905</v>
+        <v>0.892172973840232</v>
       </c>
       <c r="I8">
-        <v>0.5046457959676296</v>
+        <v>1.114529719085237</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.571635143197227</v>
+        <v>0.4766102780446033</v>
       </c>
       <c r="L8">
-        <v>0.2287908946510271</v>
+        <v>0.1788545044387746</v>
       </c>
       <c r="M8">
-        <v>0.1886469203194849</v>
+        <v>0.165614800533497</v>
       </c>
       <c r="N8">
-        <v>1.009127972086068</v>
+        <v>2.059456044823769</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8003174088441085</v>
+        <v>0.6293492025062903</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04193428261807242</v>
+        <v>0.03603704987360601</v>
       </c>
       <c r="E9">
-        <v>0.1091375963535954</v>
+        <v>0.2076215747410748</v>
       </c>
       <c r="F9">
-        <v>0.9284673054764596</v>
+        <v>1.014804449880188</v>
       </c>
       <c r="G9">
-        <v>0.8294207274760481</v>
+        <v>0.8672914390491968</v>
       </c>
       <c r="H9">
-        <v>0.5232129573497701</v>
+        <v>0.8916538184188028</v>
       </c>
       <c r="I9">
-        <v>0.4913635836905819</v>
+        <v>1.0971096446514</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.111004398413058</v>
+        <v>0.6347920171645001</v>
       </c>
       <c r="L9">
-        <v>0.3016101367546185</v>
+        <v>0.1965199563278048</v>
       </c>
       <c r="M9">
-        <v>0.2475884839691993</v>
+        <v>0.1800718485361301</v>
       </c>
       <c r="N9">
-        <v>0.8976636033910701</v>
+        <v>2.013037285831651</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9416272838730322</v>
+        <v>0.66491676470946</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04550109799642854</v>
+        <v>0.03740432895317269</v>
       </c>
       <c r="E10">
-        <v>0.111684461345857</v>
+        <v>0.2080030670291322</v>
       </c>
       <c r="F10">
-        <v>1.05284144614545</v>
+        <v>1.035996537811627</v>
       </c>
       <c r="G10">
-        <v>0.9403443565245198</v>
+        <v>0.885956767920959</v>
       </c>
       <c r="H10">
-        <v>0.5640533689872882</v>
+        <v>0.8933328797678257</v>
       </c>
       <c r="I10">
-        <v>0.48605149119863</v>
+        <v>1.086426950043471</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.51271707566633</v>
+        <v>0.7508283742634774</v>
       </c>
       <c r="L10">
-        <v>0.3566858711313898</v>
+        <v>0.2099657262155432</v>
       </c>
       <c r="M10">
-        <v>0.2918792110142832</v>
+        <v>0.1910687859140339</v>
       </c>
       <c r="N10">
-        <v>0.8225679625835696</v>
+        <v>1.981984513255263</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.006612029217791</v>
+        <v>0.6813518792844206</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04712018076445901</v>
+        <v>0.03801986571483695</v>
       </c>
       <c r="E11">
-        <v>0.1128978894302008</v>
+        <v>0.2081855521918152</v>
       </c>
       <c r="F11">
-        <v>1.111832988462623</v>
+        <v>1.046281556856513</v>
       </c>
       <c r="G11">
-        <v>0.9932187348417472</v>
+        <v>0.8950442564187284</v>
       </c>
       <c r="H11">
-        <v>0.5839302904304162</v>
+        <v>0.8945444812609935</v>
       </c>
       <c r="I11">
-        <v>0.4847051188228519</v>
+        <v>1.082025937063889</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.697185764772797</v>
+        <v>0.8035791507196564</v>
       </c>
       <c r="L11">
-        <v>0.382172585007666</v>
+        <v>0.2161839576054092</v>
       </c>
       <c r="M11">
-        <v>0.312296925391756</v>
+        <v>0.1961524452140395</v>
       </c>
       <c r="N11">
-        <v>0.7900025915177835</v>
+        <v>1.968519951098166</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.031333350109378</v>
+        <v>0.687611763268734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04773293011915314</v>
+        <v>0.03825201846254345</v>
       </c>
       <c r="E12">
-        <v>0.1133663523280752</v>
+        <v>0.208255941200755</v>
       </c>
       <c r="F12">
-        <v>1.134555088930611</v>
+        <v>1.050269078512969</v>
       </c>
       <c r="G12">
-        <v>1.013625275605548</v>
+        <v>0.8985714828886273</v>
       </c>
       <c r="H12">
-        <v>0.5916608158901084</v>
+        <v>0.8950676799717172</v>
       </c>
       <c r="I12">
-        <v>0.4843586031849085</v>
+        <v>1.080425288942919</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.767335958835929</v>
+        <v>0.8235493843778841</v>
       </c>
       <c r="L12">
-        <v>0.3918938891236934</v>
+        <v>0.2185532263191732</v>
       </c>
       <c r="M12">
-        <v>0.3200721741824282</v>
+        <v>0.1980890747143675</v>
       </c>
       <c r="N12">
-        <v>0.7779116173531477</v>
+        <v>1.963516412061956</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.026003944164984</v>
+        <v>0.6862619794880516</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04760097732685153</v>
+        <v>0.03820206208919785</v>
       </c>
       <c r="E13">
-        <v>0.1132650432778437</v>
+        <v>0.2082407244792446</v>
       </c>
       <c r="F13">
-        <v>1.129643822373467</v>
+        <v>1.049406164946376</v>
       </c>
       <c r="G13">
-        <v>1.009212655885023</v>
+        <v>0.8978080036983584</v>
       </c>
       <c r="H13">
-        <v>0.5899865720444097</v>
+        <v>0.8949521359272268</v>
       </c>
       <c r="I13">
-        <v>0.4844258098468259</v>
+        <v>1.08076708575279</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.752213899478562</v>
+        <v>0.8192486802592498</v>
       </c>
       <c r="L13">
-        <v>0.3897969858334847</v>
+        <v>0.2180423153721165</v>
       </c>
       <c r="M13">
-        <v>0.3183956212946271</v>
+        <v>0.197671474503835</v>
       </c>
       <c r="N13">
-        <v>0.7805047247799841</v>
+        <v>1.964589778506124</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.00864353023232</v>
+        <v>0.6818661594787443</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04717059843545712</v>
+        <v>0.03803898391554839</v>
       </c>
       <c r="E14">
-        <v>0.1129362438832491</v>
+        <v>0.2081913173674232</v>
       </c>
       <c r="F14">
-        <v>1.113694449549982</v>
+        <v>1.046607752015078</v>
       </c>
       <c r="G14">
-        <v>0.9948896717947662</v>
+        <v>0.8953327188544336</v>
       </c>
       <c r="H14">
-        <v>0.5845621041704732</v>
+        <v>0.8945862346286333</v>
       </c>
       <c r="I14">
-        <v>0.4846732809422249</v>
+        <v>1.081892929791593</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.702950846695529</v>
+        <v>0.8052222228693608</v>
       </c>
       <c r="L14">
-        <v>0.3829709117370612</v>
+        <v>0.2163785873341624</v>
       </c>
       <c r="M14">
-        <v>0.3129356995598798</v>
+        <v>0.1963115418417658</v>
       </c>
       <c r="N14">
-        <v>0.7890029654087698</v>
+        <v>1.968106398568541</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9980248646370171</v>
+        <v>0.6791783021646154</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04690693613275698</v>
+        <v>0.03793897139290436</v>
       </c>
       <c r="E15">
-        <v>0.1127360462485152</v>
+        <v>0.2081612215408617</v>
       </c>
       <c r="F15">
-        <v>1.103976039442657</v>
+        <v>1.044905732941032</v>
       </c>
       <c r="G15">
-        <v>0.9861676069230896</v>
+        <v>0.8938277403310764</v>
       </c>
       <c r="H15">
-        <v>0.5812664950820761</v>
+        <v>0.8943704952114757</v>
       </c>
       <c r="I15">
-        <v>0.4848464259536129</v>
+        <v>1.082591125741089</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.672815817953108</v>
+        <v>0.7966299069818774</v>
       </c>
       <c r="L15">
-        <v>0.3787991086754374</v>
+        <v>0.2153614000825286</v>
       </c>
       <c r="M15">
-        <v>0.309597151685459</v>
+        <v>0.1954800459422188</v>
       </c>
       <c r="N15">
-        <v>0.7942400962772211</v>
+        <v>1.970272829836944</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9373955166348935</v>
+        <v>0.6638477898390249</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0453952285898751</v>
+        <v>0.03736397155313398</v>
       </c>
       <c r="E16">
-        <v>0.1116063538899512</v>
+        <v>0.2079913211276363</v>
       </c>
       <c r="F16">
-        <v>1.049037804285234</v>
+        <v>1.035337368753218</v>
       </c>
       <c r="G16">
-        <v>0.9369405709337428</v>
+        <v>0.88537490102172</v>
       </c>
       <c r="H16">
-        <v>0.5627819029614045</v>
+        <v>0.8932627093967511</v>
       </c>
       <c r="I16">
-        <v>0.4861618054380727</v>
+        <v>1.08672379253623</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.500700344693854</v>
+        <v>0.747380258401364</v>
       </c>
       <c r="L16">
-        <v>0.3550296143237404</v>
+        <v>0.2095613909595073</v>
       </c>
       <c r="M16">
-        <v>0.2905506875593957</v>
+        <v>0.1907381798495464</v>
       </c>
       <c r="N16">
-        <v>0.8247292505651522</v>
+        <v>1.982877771515476</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9003895122391441</v>
+        <v>0.6545080785314212</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04446704750397146</v>
+        <v>0.03700956923712084</v>
       </c>
       <c r="E17">
-        <v>0.1109280997969728</v>
+        <v>0.2078893829702926</v>
       </c>
       <c r="F17">
-        <v>1.015977954022091</v>
+        <v>1.029632671897218</v>
       </c>
       <c r="G17">
-        <v>0.9073851923489826</v>
+        <v>0.8803422951296085</v>
       </c>
       <c r="H17">
-        <v>0.5517863311220594</v>
+        <v>0.892697807817143</v>
       </c>
       <c r="I17">
-        <v>0.4872493426644233</v>
+        <v>1.089376489195622</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.395588096022919</v>
+        <v>0.7171580505790587</v>
       </c>
       <c r="L17">
-        <v>0.3405639656805732</v>
+        <v>0.2060292723392223</v>
       </c>
       <c r="M17">
-        <v>0.2789386162321961</v>
+        <v>0.1878498958253587</v>
       </c>
       <c r="N17">
-        <v>0.8438499283355334</v>
+        <v>1.990779973745269</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8791699585128754</v>
+        <v>0.6491601755564318</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04393284565836808</v>
+        <v>0.03680512037411887</v>
       </c>
       <c r="E18">
-        <v>0.1105430769113509</v>
+        <v>0.2078315925332523</v>
       </c>
       <c r="F18">
-        <v>0.9971876006817553</v>
+        <v>1.026412150335617</v>
       </c>
       <c r="G18">
-        <v>0.8906106196090491</v>
+        <v>0.8775038096107579</v>
       </c>
       <c r="H18">
-        <v>0.5455830952117964</v>
+        <v>0.892415039236468</v>
       </c>
       <c r="I18">
-        <v>0.4879749866499381</v>
+        <v>1.090945417111271</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.335289848051701</v>
+        <v>0.6997717863231117</v>
       </c>
       <c r="L18">
-        <v>0.3322839104327073</v>
+        <v>0.2040072657841421</v>
       </c>
       <c r="M18">
-        <v>0.2722847364973298</v>
+        <v>0.1861962707090292</v>
       </c>
       <c r="N18">
-        <v>0.854997134658273</v>
+        <v>1.995387370233065</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8719962485062922</v>
+        <v>0.6473536119231085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04375191230450781</v>
+        <v>0.03673579374796532</v>
       </c>
       <c r="E19">
-        <v>0.1104135583180117</v>
+        <v>0.2078121702510147</v>
       </c>
       <c r="F19">
-        <v>0.9908630601522361</v>
+        <v>1.025332153684545</v>
       </c>
       <c r="G19">
-        <v>0.8849685864691992</v>
+        <v>0.8765523822317505</v>
       </c>
       <c r="H19">
-        <v>0.5435030979195972</v>
+        <v>0.8923265376019884</v>
       </c>
       <c r="I19">
-        <v>0.4882375962869467</v>
+        <v>1.091484043913127</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.314899915534056</v>
+        <v>0.6938845483271336</v>
       </c>
       <c r="L19">
-        <v>0.3294871015518339</v>
+        <v>0.2033242954647676</v>
       </c>
       <c r="M19">
-        <v>0.2700360156173041</v>
+        <v>0.1856376969004465</v>
       </c>
       <c r="N19">
-        <v>0.8587967323259633</v>
+        <v>1.99695804627461</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9043220196535628</v>
+        <v>0.6554998206626976</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04456588785163973</v>
+        <v>0.03704735876825538</v>
       </c>
       <c r="E20">
-        <v>0.1109997668011466</v>
+        <v>0.20790014735101</v>
       </c>
       <c r="F20">
-        <v>1.01947371210143</v>
+        <v>1.030233666777434</v>
       </c>
       <c r="G20">
-        <v>0.9105078784737657</v>
+        <v>0.8808722131963833</v>
       </c>
       <c r="H20">
-        <v>0.5529441746189576</v>
+        <v>0.8927535804071454</v>
       </c>
       <c r="I20">
-        <v>0.4871231440239185</v>
+        <v>1.089089637677436</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.406760631524492</v>
+        <v>0.7203755950172024</v>
       </c>
       <c r="L20">
-        <v>0.3420996428567804</v>
+        <v>0.2064042819074388</v>
       </c>
       <c r="M20">
-        <v>0.2801721125711794</v>
+        <v>0.1881565686855993</v>
       </c>
       <c r="N20">
-        <v>0.8417989477304104</v>
+        <v>1.989932326736628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.013739537316525</v>
+        <v>0.6831563377313898</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04729701980078005</v>
+        <v>0.03808690946165427</v>
       </c>
       <c r="E21">
-        <v>0.1130325677436232</v>
+        <v>0.2082057945359566</v>
       </c>
       <c r="F21">
-        <v>1.118368461107849</v>
+        <v>1.047427194057974</v>
       </c>
       <c r="G21">
-        <v>0.9990859440960946</v>
+        <v>0.8960574345449146</v>
       </c>
       <c r="H21">
-        <v>0.586149735949661</v>
+        <v>0.8946919611373687</v>
       </c>
       <c r="I21">
-        <v>0.4845960813961625</v>
+        <v>1.081560453260892</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.717412170165062</v>
+        <v>0.8093422811003279</v>
       </c>
       <c r="L21">
-        <v>0.3849739287524443</v>
+        <v>0.2168668699480065</v>
       </c>
       <c r="M21">
-        <v>0.3145381907962275</v>
+        <v>0.1967106741737652</v>
       </c>
       <c r="N21">
-        <v>0.7865001957388635</v>
+        <v>1.967070897736509</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.085915139701967</v>
+        <v>0.7014426327668275</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04907993671837119</v>
+        <v>0.03876084552530301</v>
       </c>
       <c r="E22">
-        <v>0.114413963381276</v>
+        <v>0.2084130476185839</v>
       </c>
       <c r="F22">
-        <v>1.185254956059211</v>
+        <v>1.059205166363881</v>
       </c>
       <c r="G22">
-        <v>1.059235372130772</v>
+        <v>0.9064831781416842</v>
       </c>
       <c r="H22">
-        <v>0.6090468704433647</v>
+        <v>0.8963341286532085</v>
       </c>
       <c r="I22">
-        <v>0.4839013757172026</v>
+        <v>1.077023916458081</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.922190685942752</v>
+        <v>0.8674558642873649</v>
       </c>
       <c r="L22">
-        <v>0.4134070840690782</v>
+        <v>0.2237896104822141</v>
       </c>
       <c r="M22">
-        <v>0.3372544365229828</v>
+        <v>0.2023685976690714</v>
       </c>
       <c r="N22">
-        <v>0.7517688606054342</v>
+        <v>1.952684558846681</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.047328611227471</v>
+        <v>0.6916637175719416</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04812849701738031</v>
+        <v>0.03840165726866474</v>
       </c>
       <c r="E23">
-        <v>0.1136714618459802</v>
+        <v>0.2083017469192683</v>
       </c>
       <c r="F23">
-        <v>1.14933745669866</v>
+        <v>1.052869502002125</v>
       </c>
       <c r="G23">
-        <v>1.02691283134736</v>
+        <v>0.9008728219052813</v>
       </c>
       <c r="H23">
-        <v>0.5967109258749446</v>
+        <v>0.8954233305700541</v>
       </c>
       <c r="I23">
-        <v>0.4841812975341</v>
+        <v>1.079410003748428</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.812719670416868</v>
+        <v>0.8364425281874048</v>
       </c>
       <c r="L23">
-        <v>0.3981912903952036</v>
+        <v>0.2200870719107542</v>
       </c>
       <c r="M23">
-        <v>0.3251052654482081</v>
+        <v>0.1993427317874037</v>
       </c>
       <c r="N23">
-        <v>0.770172682184878</v>
+        <v>1.960312017103398</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9025439604855876</v>
+        <v>0.6550513866641836</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04452120394153525</v>
+        <v>0.03703027629515532</v>
       </c>
       <c r="E24">
-        <v>0.1109673509210367</v>
+        <v>0.2078952782370145</v>
       </c>
       <c r="F24">
-        <v>1.017892609182738</v>
+        <v>1.029961772641613</v>
       </c>
       <c r="G24">
-        <v>0.9090954382785981</v>
+        <v>0.880632466470999</v>
       </c>
       <c r="H24">
-        <v>0.5524203464635775</v>
+        <v>0.8927282347848546</v>
       </c>
       <c r="I24">
-        <v>0.4871798863982235</v>
+        <v>1.089219186632221</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.401709120041232</v>
+        <v>0.7189209777760368</v>
       </c>
       <c r="L24">
-        <v>0.3414052502925529</v>
+        <v>0.2062347131163733</v>
       </c>
       <c r="M24">
-        <v>0.2796143805340137</v>
+        <v>0.1880179004229916</v>
       </c>
       <c r="N24">
-        <v>0.8427257157561314</v>
+        <v>1.990315347610149</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7488255713529384</v>
+        <v>0.6164802444030784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04061683502570546</v>
+        <v>0.03552788983231636</v>
       </c>
       <c r="E25">
-        <v>0.1082418088528012</v>
+        <v>0.2074890155258062</v>
       </c>
       <c r="F25">
-        <v>0.8845789190447135</v>
+        <v>1.007570994692003</v>
       </c>
       <c r="G25">
-        <v>0.790483105581032</v>
+        <v>0.8609451914199866</v>
       </c>
       <c r="H25">
-        <v>0.5092194610674596</v>
+        <v>0.8914324997993077</v>
       </c>
       <c r="I25">
-        <v>0.4942095151226198</v>
+        <v>1.10145045616024</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.964306295103768</v>
+        <v>0.5920316323767736</v>
       </c>
       <c r="L25">
-        <v>0.2816623659771551</v>
+        <v>0.1916589481671593</v>
       </c>
       <c r="M25">
-        <v>0.2314874044049127</v>
+        <v>0.1760946766563869</v>
       </c>
       <c r="N25">
-        <v>0.926662923684372</v>
+        <v>2.025058872275507</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5888815306416006</v>
+        <v>0.6373236819730721</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03440194418249831</v>
+        <v>0.03772552990012557</v>
       </c>
       <c r="E2">
-        <v>0.2072174822950821</v>
+        <v>0.1063648812497373</v>
       </c>
       <c r="F2">
-        <v>0.9930695111709724</v>
+        <v>0.7924744904394601</v>
       </c>
       <c r="G2">
-        <v>0.8482818272803314</v>
+        <v>0.7091870992838096</v>
       </c>
       <c r="H2">
-        <v>0.8918630600367692</v>
+        <v>0.4807760813442741</v>
       </c>
       <c r="I2">
-        <v>1.111877892119693</v>
+        <v>0.502331970295316</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4984873897189175</v>
+        <v>1.64571054396734</v>
       </c>
       <c r="L2">
-        <v>0.181241298967322</v>
+        <v>0.2387001610770767</v>
       </c>
       <c r="M2">
-        <v>0.1675686564766714</v>
+        <v>0.1966951861107233</v>
       </c>
       <c r="N2">
-        <v>2.052689442208054</v>
+        <v>0.9929821009690443</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5706823736761351</v>
+        <v>0.5626102017442349</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03362665722089631</v>
+        <v>0.0357535765284176</v>
       </c>
       <c r="E3">
-        <v>0.2070506507462229</v>
+        <v>0.1051590813153291</v>
       </c>
       <c r="F3">
-        <v>0.9844754281123755</v>
+        <v>0.7332751837123865</v>
       </c>
       <c r="G3">
-        <v>0.840836739305459</v>
+        <v>0.6572952437496298</v>
       </c>
       <c r="H3">
-        <v>0.8930181420368513</v>
+        <v>0.463342973909846</v>
       </c>
       <c r="I3">
-        <v>1.119832566816203</v>
+        <v>0.5095297352912702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4350155381087291</v>
+        <v>1.431218342757859</v>
       </c>
       <c r="L3">
-        <v>0.1743772246329343</v>
+        <v>0.2101012160466524</v>
       </c>
       <c r="M3">
-        <v>0.161949245535272</v>
+        <v>0.1734418700574309</v>
       </c>
       <c r="N3">
-        <v>2.072694104772502</v>
+        <v>1.04057836925956</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5597590413339333</v>
+        <v>0.5170972085060157</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03314464114088267</v>
+        <v>0.0345360190729842</v>
       </c>
       <c r="E4">
-        <v>0.2069566925088493</v>
+        <v>0.1044470839266678</v>
       </c>
       <c r="F4">
-        <v>0.9798059982532976</v>
+        <v>0.6983467269233188</v>
       </c>
       <c r="G4">
-        <v>0.8368245189965364</v>
+        <v>0.6268427421122169</v>
       </c>
       <c r="H4">
-        <v>0.8941531576961381</v>
+        <v>0.4534705933731829</v>
       </c>
       <c r="I4">
-        <v>1.125155115154378</v>
+        <v>0.5147397858013747</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3960058110855584</v>
+        <v>1.300000592062389</v>
       </c>
       <c r="L4">
-        <v>0.1702594723442559</v>
+        <v>0.192759058984052</v>
       </c>
       <c r="M4">
-        <v>0.1585776322827002</v>
+        <v>0.1593020058558849</v>
       </c>
       <c r="N4">
-        <v>2.085608232925924</v>
+        <v>1.071059206618644</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5553712386222855</v>
+        <v>0.498633214598982</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03294672005085886</v>
+        <v>0.03403807856105345</v>
       </c>
       <c r="E5">
-        <v>0.2069205369147475</v>
+        <v>0.1041634957570077</v>
       </c>
       <c r="F5">
-        <v>0.9780558176451279</v>
+        <v>0.6844468733789029</v>
       </c>
       <c r="G5">
-        <v>0.835329920727645</v>
+        <v>0.6147638155166106</v>
       </c>
       <c r="H5">
-        <v>0.8947227818290457</v>
+        <v>0.4496458727386994</v>
       </c>
       <c r="I5">
-        <v>1.127434378971664</v>
+        <v>0.5170554422582647</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.38009981386449</v>
+        <v>1.246619457569693</v>
       </c>
       <c r="L5">
-        <v>0.1686058590775588</v>
+        <v>0.185741632947952</v>
       </c>
       <c r="M5">
-        <v>0.1572235676640119</v>
+        <v>0.1535714301506488</v>
       </c>
       <c r="N5">
-        <v>2.091029553898888</v>
+        <v>1.08378902111702</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5546464976476813</v>
+        <v>0.495572066238779</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03291376536241586</v>
+        <v>0.0339552866483146</v>
       </c>
       <c r="E6">
-        <v>0.2069146621928812</v>
+        <v>0.1041167861933774</v>
       </c>
       <c r="F6">
-        <v>0.97777441890738</v>
+        <v>0.6821583142045426</v>
       </c>
       <c r="G6">
-        <v>0.8350902194076895</v>
+        <v>0.6127774257896874</v>
       </c>
       <c r="H6">
-        <v>0.8948238366546803</v>
+        <v>0.4490224574518464</v>
       </c>
       <c r="I6">
-        <v>1.127819511434367</v>
+        <v>0.5174514049217862</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3774580866938777</v>
+        <v>1.23776022718053</v>
       </c>
       <c r="L6">
-        <v>0.1683327535476167</v>
+        <v>0.184579249114762</v>
       </c>
       <c r="M6">
-        <v>0.1569999307838401</v>
+        <v>0.1526216892326069</v>
       </c>
       <c r="N6">
-        <v>2.091939345565564</v>
+        <v>1.085921229936503</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5596996080447241</v>
+        <v>0.5168478710904765</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03314197795071649</v>
+        <v>0.0345293109556728</v>
       </c>
       <c r="E7">
-        <v>0.2069561962617588</v>
+        <v>0.1044432335380074</v>
       </c>
       <c r="F7">
-        <v>0.97978177673766</v>
+        <v>0.6981579471116177</v>
       </c>
       <c r="G7">
-        <v>0.8368037940235098</v>
+        <v>0.626678532771777</v>
       </c>
       <c r="H7">
-        <v>0.8941604061841559</v>
+        <v>0.4534182225146566</v>
       </c>
       <c r="I7">
-        <v>1.125185407501057</v>
+        <v>0.5147702441329436</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3957913341941151</v>
+        <v>1.299280344501994</v>
       </c>
       <c r="L7">
-        <v>0.1702370722473745</v>
+        <v>0.1926642250608097</v>
       </c>
       <c r="M7">
-        <v>0.1585592902082524</v>
+        <v>0.1592245976182554</v>
       </c>
       <c r="N7">
-        <v>2.08568070416276</v>
+        <v>1.071229645149121</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.582554607456899</v>
+        <v>0.6114825278668263</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03413587343716884</v>
+        <v>0.03704695833889105</v>
       </c>
       <c r="E8">
-        <v>0.2071582001418841</v>
+        <v>0.105942870571015</v>
       </c>
       <c r="F8">
-        <v>0.9899801583003693</v>
+        <v>0.7717533576854976</v>
       </c>
       <c r="G8">
-        <v>0.8455986110574969</v>
+        <v>0.6909876201125229</v>
       </c>
       <c r="H8">
-        <v>0.892172973840232</v>
+        <v>0.4745858735486905</v>
       </c>
       <c r="I8">
-        <v>1.114529719085237</v>
+        <v>0.504645795967626</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4766102780446033</v>
+        <v>1.571635143197199</v>
       </c>
       <c r="L8">
-        <v>0.1788545044387746</v>
+        <v>0.2287908946511124</v>
       </c>
       <c r="M8">
-        <v>0.165614800533497</v>
+        <v>0.1886469203194707</v>
       </c>
       <c r="N8">
-        <v>2.059456044823769</v>
+        <v>1.00912797208607</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6293492025062903</v>
+        <v>0.8003174088441085</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03603704987360601</v>
+        <v>0.04193428261819321</v>
       </c>
       <c r="E9">
-        <v>0.2076215747410748</v>
+        <v>0.1091375963535928</v>
       </c>
       <c r="F9">
-        <v>1.014804449880188</v>
+        <v>0.9284673054764596</v>
       </c>
       <c r="G9">
-        <v>0.8672914390491968</v>
+        <v>0.8294207274760481</v>
       </c>
       <c r="H9">
-        <v>0.8916538184188028</v>
+        <v>0.5232129573497701</v>
       </c>
       <c r="I9">
-        <v>1.0971096446514</v>
+        <v>0.4913635836905854</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6347920171645001</v>
+        <v>2.11100439841303</v>
       </c>
       <c r="L9">
-        <v>0.1965199563278048</v>
+        <v>0.3016101367546469</v>
       </c>
       <c r="M9">
-        <v>0.1800718485361301</v>
+        <v>0.2475884839691886</v>
       </c>
       <c r="N9">
-        <v>2.013037285831651</v>
+        <v>0.8976636033910737</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.66491676470946</v>
+        <v>0.9416272838729469</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03740432895317269</v>
+        <v>0.04550109799630775</v>
       </c>
       <c r="E10">
-        <v>0.2080030670291322</v>
+        <v>0.1116844613458428</v>
       </c>
       <c r="F10">
-        <v>1.035996537811627</v>
+        <v>1.05284144614545</v>
       </c>
       <c r="G10">
-        <v>0.885956767920959</v>
+        <v>0.9403443565245055</v>
       </c>
       <c r="H10">
-        <v>0.8933328797678257</v>
+        <v>0.5640533689872882</v>
       </c>
       <c r="I10">
-        <v>1.086426950043471</v>
+        <v>0.48605149119863</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7508283742634774</v>
+        <v>2.512717075666302</v>
       </c>
       <c r="L10">
-        <v>0.2099657262155432</v>
+        <v>0.3566858711313472</v>
       </c>
       <c r="M10">
-        <v>0.1910687859140339</v>
+        <v>0.2918792110142761</v>
       </c>
       <c r="N10">
-        <v>1.981984513255263</v>
+        <v>0.822567962583566</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6813518792844206</v>
+        <v>1.006612029217848</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03801986571483695</v>
+        <v>0.04712018076446611</v>
       </c>
       <c r="E11">
-        <v>0.2081855521918152</v>
+        <v>0.1128978894302177</v>
       </c>
       <c r="F11">
-        <v>1.046281556856513</v>
+        <v>1.111832988462609</v>
       </c>
       <c r="G11">
-        <v>0.8950442564187284</v>
+        <v>0.9932187348418182</v>
       </c>
       <c r="H11">
-        <v>0.8945444812609935</v>
+        <v>0.5839302904304162</v>
       </c>
       <c r="I11">
-        <v>1.082025937063889</v>
+        <v>0.4847051188228377</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8035791507196564</v>
+        <v>2.697185764772883</v>
       </c>
       <c r="L11">
-        <v>0.2161839576054092</v>
+        <v>0.3821725850076376</v>
       </c>
       <c r="M11">
-        <v>0.1961524452140395</v>
+        <v>0.312296925391756</v>
       </c>
       <c r="N11">
-        <v>1.968519951098166</v>
+        <v>0.7900025915177906</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.687611763268734</v>
+        <v>1.031333350109293</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03825201846254345</v>
+        <v>0.04773293011916024</v>
       </c>
       <c r="E12">
-        <v>0.208255941200755</v>
+        <v>0.1133663523280788</v>
       </c>
       <c r="F12">
-        <v>1.050269078512969</v>
+        <v>1.134555088930625</v>
       </c>
       <c r="G12">
-        <v>0.8985714828886273</v>
+        <v>1.013625275605548</v>
       </c>
       <c r="H12">
-        <v>0.8950676799717172</v>
+        <v>0.5916608158900942</v>
       </c>
       <c r="I12">
-        <v>1.080425288942919</v>
+        <v>0.4843586031849156</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8235493843778841</v>
+        <v>2.767335958835957</v>
       </c>
       <c r="L12">
-        <v>0.2185532263191732</v>
+        <v>0.3918938891237076</v>
       </c>
       <c r="M12">
-        <v>0.1980890747143675</v>
+        <v>0.3200721741824282</v>
       </c>
       <c r="N12">
-        <v>1.963516412061956</v>
+        <v>0.7779116173530873</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6862619794880516</v>
+        <v>1.026003944165211</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03820206208919785</v>
+        <v>0.04760097732685153</v>
       </c>
       <c r="E13">
-        <v>0.2082407244792446</v>
+        <v>0.1132650432778268</v>
       </c>
       <c r="F13">
-        <v>1.049406164946376</v>
+        <v>1.129643822373467</v>
       </c>
       <c r="G13">
-        <v>0.8978080036983584</v>
+        <v>1.009212655885008</v>
       </c>
       <c r="H13">
-        <v>0.8949521359272268</v>
+        <v>0.5899865720445234</v>
       </c>
       <c r="I13">
-        <v>1.08076708575279</v>
+        <v>0.4844258098468472</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8192486802592498</v>
+        <v>2.752213899478619</v>
       </c>
       <c r="L13">
-        <v>0.2180423153721165</v>
+        <v>0.3897969858333568</v>
       </c>
       <c r="M13">
-        <v>0.197671474503835</v>
+        <v>0.3183956212946271</v>
       </c>
       <c r="N13">
-        <v>1.964589778506124</v>
+        <v>0.7805047247799806</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6818661594787443</v>
+        <v>1.008643530232291</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03803898391554839</v>
+        <v>0.04717059843552818</v>
       </c>
       <c r="E14">
-        <v>0.2081913173674232</v>
+        <v>0.1129362438832349</v>
       </c>
       <c r="F14">
-        <v>1.046607752015078</v>
+        <v>1.113694449549996</v>
       </c>
       <c r="G14">
-        <v>0.8953327188544336</v>
+        <v>0.9948896717947946</v>
       </c>
       <c r="H14">
-        <v>0.8945862346286333</v>
+        <v>0.5845621041704732</v>
       </c>
       <c r="I14">
-        <v>1.081892929791593</v>
+        <v>0.4846732809422249</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8052222228693608</v>
+        <v>2.702950846695501</v>
       </c>
       <c r="L14">
-        <v>0.2163785873341624</v>
+        <v>0.382970911737047</v>
       </c>
       <c r="M14">
-        <v>0.1963115418417658</v>
+        <v>0.3129356995598584</v>
       </c>
       <c r="N14">
-        <v>1.968106398568541</v>
+        <v>0.7890029654087591</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6791783021646154</v>
+        <v>0.9980248646370171</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03793897139290436</v>
+        <v>0.04690693613287777</v>
       </c>
       <c r="E15">
-        <v>0.2081612215408617</v>
+        <v>0.1127360462485161</v>
       </c>
       <c r="F15">
-        <v>1.044905732941032</v>
+        <v>1.103976039442642</v>
       </c>
       <c r="G15">
-        <v>0.8938277403310764</v>
+        <v>0.9861676069230896</v>
       </c>
       <c r="H15">
-        <v>0.8943704952114757</v>
+        <v>0.5812664950820761</v>
       </c>
       <c r="I15">
-        <v>1.082591125741089</v>
+        <v>0.4848464259536271</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7966299069818774</v>
+        <v>2.672815817953051</v>
       </c>
       <c r="L15">
-        <v>0.2153614000825286</v>
+        <v>0.3787991086754232</v>
       </c>
       <c r="M15">
-        <v>0.1954800459422188</v>
+        <v>0.309597151685459</v>
       </c>
       <c r="N15">
-        <v>1.970272829836944</v>
+        <v>0.7942400962772993</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6638477898390249</v>
+        <v>0.9373955166349219</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03736397155313398</v>
+        <v>0.0453952285898751</v>
       </c>
       <c r="E16">
-        <v>0.2079913211276363</v>
+        <v>0.1116063538899628</v>
       </c>
       <c r="F16">
-        <v>1.035337368753218</v>
+        <v>1.04903780428522</v>
       </c>
       <c r="G16">
-        <v>0.88537490102172</v>
+        <v>0.9369405709337855</v>
       </c>
       <c r="H16">
-        <v>0.8932627093967511</v>
+        <v>0.5627819029615466</v>
       </c>
       <c r="I16">
-        <v>1.08672379253623</v>
+        <v>0.4861618054380727</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.747380258401364</v>
+        <v>2.500700344693854</v>
       </c>
       <c r="L16">
-        <v>0.2095613909595073</v>
+        <v>0.3550296143237119</v>
       </c>
       <c r="M16">
-        <v>0.1907381798495464</v>
+        <v>0.2905506875593957</v>
       </c>
       <c r="N16">
-        <v>1.982877771515476</v>
+        <v>0.8247292505651451</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6545080785314212</v>
+        <v>0.9003895122391157</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03700956923712084</v>
+        <v>0.04446704750403541</v>
       </c>
       <c r="E17">
-        <v>0.2078893829702926</v>
+        <v>0.110928099796995</v>
       </c>
       <c r="F17">
-        <v>1.029632671897218</v>
+        <v>1.015977954022091</v>
       </c>
       <c r="G17">
-        <v>0.8803422951296085</v>
+        <v>0.9073851923489684</v>
       </c>
       <c r="H17">
-        <v>0.892697807817143</v>
+        <v>0.5517863311221731</v>
       </c>
       <c r="I17">
-        <v>1.089376489195622</v>
+        <v>0.4872493426644127</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7171580505790587</v>
+        <v>2.395588096022948</v>
       </c>
       <c r="L17">
-        <v>0.2060292723392223</v>
+        <v>0.3405639656805164</v>
       </c>
       <c r="M17">
-        <v>0.1878498958253587</v>
+        <v>0.2789386162321819</v>
       </c>
       <c r="N17">
-        <v>1.990779973745269</v>
+        <v>0.8438499283354801</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6491601755564318</v>
+        <v>0.8791699585128185</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03680512037411887</v>
+        <v>0.04393284565828992</v>
       </c>
       <c r="E18">
-        <v>0.2078315925332523</v>
+        <v>0.1105430769113669</v>
       </c>
       <c r="F18">
-        <v>1.026412150335617</v>
+        <v>0.9971876006817553</v>
       </c>
       <c r="G18">
-        <v>0.8775038096107579</v>
+        <v>0.8906106196090349</v>
       </c>
       <c r="H18">
-        <v>0.892415039236468</v>
+        <v>0.5455830952117964</v>
       </c>
       <c r="I18">
-        <v>1.090945417111271</v>
+        <v>0.4879749866499523</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6997717863231117</v>
+        <v>2.335289848051616</v>
       </c>
       <c r="L18">
-        <v>0.2040072657841421</v>
+        <v>0.3322839104326363</v>
       </c>
       <c r="M18">
-        <v>0.1861962707090292</v>
+        <v>0.2722847364973191</v>
       </c>
       <c r="N18">
-        <v>1.995387370233065</v>
+        <v>0.8549971346582694</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6473536119231085</v>
+        <v>0.8719962485062638</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03673579374796532</v>
+        <v>0.04375191230474229</v>
       </c>
       <c r="E19">
-        <v>0.2078121702510147</v>
+        <v>0.1104135583180152</v>
       </c>
       <c r="F19">
-        <v>1.025332153684545</v>
+        <v>0.9908630601522219</v>
       </c>
       <c r="G19">
-        <v>0.8765523822317505</v>
+        <v>0.8849685864691565</v>
       </c>
       <c r="H19">
-        <v>0.8923265376019884</v>
+        <v>0.5435030979194835</v>
       </c>
       <c r="I19">
-        <v>1.091484043913127</v>
+        <v>0.4882375962869503</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6938845483271336</v>
+        <v>2.314899915534028</v>
       </c>
       <c r="L19">
-        <v>0.2033242954647676</v>
+        <v>0.3294871015518908</v>
       </c>
       <c r="M19">
-        <v>0.1856376969004465</v>
+        <v>0.2700360156173076</v>
       </c>
       <c r="N19">
-        <v>1.99695804627461</v>
+        <v>0.8587967323259633</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6554998206626976</v>
+        <v>0.9043220196536765</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03704735876825538</v>
+        <v>0.04456588785168236</v>
       </c>
       <c r="E20">
-        <v>0.20790014735101</v>
+        <v>0.1109997668011271</v>
       </c>
       <c r="F20">
-        <v>1.030233666777434</v>
+        <v>1.019473712101458</v>
       </c>
       <c r="G20">
-        <v>0.8808722131963833</v>
+        <v>0.9105078784737088</v>
       </c>
       <c r="H20">
-        <v>0.8927535804071454</v>
+        <v>0.5529441746190713</v>
       </c>
       <c r="I20">
-        <v>1.089089637677436</v>
+        <v>0.4871231440238972</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7203755950172024</v>
+        <v>2.406760631524605</v>
       </c>
       <c r="L20">
-        <v>0.2064042819074388</v>
+        <v>0.3420996428568799</v>
       </c>
       <c r="M20">
-        <v>0.1881565686855993</v>
+        <v>0.2801721125711651</v>
       </c>
       <c r="N20">
-        <v>1.989932326736628</v>
+        <v>0.8417989477304673</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6831563377313898</v>
+        <v>1.013739537316525</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03808690946165427</v>
+        <v>0.04729701980100032</v>
       </c>
       <c r="E21">
-        <v>0.2082057945359566</v>
+        <v>0.1130325677436526</v>
       </c>
       <c r="F21">
-        <v>1.047427194057974</v>
+        <v>1.118368461107863</v>
       </c>
       <c r="G21">
-        <v>0.8960574345449146</v>
+        <v>0.9990859440961941</v>
       </c>
       <c r="H21">
-        <v>0.8946919611373687</v>
+        <v>0.586149735949661</v>
       </c>
       <c r="I21">
-        <v>1.081560453260892</v>
+        <v>0.4845960813961625</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8093422811003279</v>
+        <v>2.717412170165119</v>
       </c>
       <c r="L21">
-        <v>0.2168668699480065</v>
+        <v>0.384973928752558</v>
       </c>
       <c r="M21">
-        <v>0.1967106741737652</v>
+        <v>0.3145381907962488</v>
       </c>
       <c r="N21">
-        <v>1.967070897736509</v>
+        <v>0.7865001957388564</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7014426327668275</v>
+        <v>1.085915139702024</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03876084552530301</v>
+        <v>0.04907993671854882</v>
       </c>
       <c r="E22">
-        <v>0.2084130476185839</v>
+        <v>0.11441396338126</v>
       </c>
       <c r="F22">
-        <v>1.059205166363881</v>
+        <v>1.185254956059211</v>
       </c>
       <c r="G22">
-        <v>0.9064831781416842</v>
+        <v>1.059235372130772</v>
       </c>
       <c r="H22">
-        <v>0.8963341286532085</v>
+        <v>0.6090468704433789</v>
       </c>
       <c r="I22">
-        <v>1.077023916458081</v>
+        <v>0.4839013757172168</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8674558642873649</v>
+        <v>2.92219068594278</v>
       </c>
       <c r="L22">
-        <v>0.2237896104822141</v>
+        <v>0.4134070840690498</v>
       </c>
       <c r="M22">
-        <v>0.2023685976690714</v>
+        <v>0.3372544365229615</v>
       </c>
       <c r="N22">
-        <v>1.952684558846681</v>
+        <v>0.7517688606053525</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6916637175719416</v>
+        <v>1.0473286112273</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03840165726866474</v>
+        <v>0.04812849701738742</v>
       </c>
       <c r="E23">
-        <v>0.2083017469192683</v>
+        <v>0.1136714618459962</v>
       </c>
       <c r="F23">
-        <v>1.052869502002125</v>
+        <v>1.14933745669866</v>
       </c>
       <c r="G23">
-        <v>0.9008728219052813</v>
+        <v>1.026912831347374</v>
       </c>
       <c r="H23">
-        <v>0.8954233305700541</v>
+        <v>0.5967109258750725</v>
       </c>
       <c r="I23">
-        <v>1.079410003748428</v>
+        <v>0.4841812975341213</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8364425281874048</v>
+        <v>2.812719670416868</v>
       </c>
       <c r="L23">
-        <v>0.2200870719107542</v>
+        <v>0.3981912903950899</v>
       </c>
       <c r="M23">
-        <v>0.1993427317874037</v>
+        <v>0.3251052654482294</v>
       </c>
       <c r="N23">
-        <v>1.960312017103398</v>
+        <v>0.7701726821848958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6550513866641836</v>
+        <v>0.9025439604854455</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03703027629515532</v>
+        <v>0.0445212039415992</v>
       </c>
       <c r="E24">
-        <v>0.2078952782370145</v>
+        <v>0.1109673509210376</v>
       </c>
       <c r="F24">
-        <v>1.029961772641613</v>
+        <v>1.017892609182752</v>
       </c>
       <c r="G24">
-        <v>0.880632466470999</v>
+        <v>0.9090954382785696</v>
       </c>
       <c r="H24">
-        <v>0.8927282347848546</v>
+        <v>0.5524203464634923</v>
       </c>
       <c r="I24">
-        <v>1.089219186632221</v>
+        <v>0.4871798863982235</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7189209777760368</v>
+        <v>2.401709120041261</v>
       </c>
       <c r="L24">
-        <v>0.2062347131163733</v>
+        <v>0.341405250292425</v>
       </c>
       <c r="M24">
-        <v>0.1880179004229916</v>
+        <v>0.2796143805340208</v>
       </c>
       <c r="N24">
-        <v>1.990315347610149</v>
+        <v>0.8427257157561385</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6164802444030784</v>
+        <v>0.7488255713529384</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03552788983231636</v>
+        <v>0.0406168350258227</v>
       </c>
       <c r="E25">
-        <v>0.2074890155258062</v>
+        <v>0.1082418088528145</v>
       </c>
       <c r="F25">
-        <v>1.007570994692003</v>
+        <v>0.8845789190447135</v>
       </c>
       <c r="G25">
-        <v>0.8609451914199866</v>
+        <v>0.7904831055809467</v>
       </c>
       <c r="H25">
-        <v>0.8914324997993077</v>
+        <v>0.5092194610674596</v>
       </c>
       <c r="I25">
-        <v>1.10145045616024</v>
+        <v>0.4942095151226233</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5920316323767736</v>
+        <v>1.964306295103711</v>
       </c>
       <c r="L25">
-        <v>0.1916589481671593</v>
+        <v>0.2816623659772688</v>
       </c>
       <c r="M25">
-        <v>0.1760946766563869</v>
+        <v>0.2314874044049162</v>
       </c>
       <c r="N25">
-        <v>2.025058872275507</v>
+        <v>0.9266629236843187</v>
       </c>
       <c r="O25">
         <v>0</v>
